--- a/ガントチャート_シンプル.xlsx
+++ b/ガントチャート_シンプル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanamori\git\office-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1DC544-CEAD-4646-8C90-51B9B9BC923A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CD4BD4-D6C0-4877-AAC3-594AB59342A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,6 +597,21 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -605,21 +620,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -704,10 +704,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -916,10 +912,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP21"/>
+  <dimension ref="A1:CM21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="X7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -929,16 +928,16 @@
     <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
     <col min="4" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
-    <col min="7" max="42" width="3.125" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="9" style="1"/>
+    <col min="7" max="91" width="3.125" style="1" customWidth="1"/>
+    <col min="92" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="18.75">
+    <row r="1" spans="1:91" ht="18.75">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:91">
       <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -947,7 +946,7 @@
         <v>45940</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:91">
       <c r="B4" s="12"/>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -955,58 +954,128 @@
       <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="22">
         <f>H5</f>
         <v>45936</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="17">
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="22">
         <f t="shared" ref="O4" si="0">O5</f>
         <v>45943</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="17">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="22">
         <f t="shared" ref="V4" si="1">V5</f>
         <v>45950</v>
       </c>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="17">
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="22">
         <f t="shared" ref="AC4" si="2">AC5</f>
         <v>45957</v>
       </c>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="17">
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="22">
         <f t="shared" ref="AJ4" si="3">AJ5</f>
         <v>45964</v>
       </c>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="19"/>
-    </row>
-    <row r="5" spans="1:42">
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="22">
+        <f t="shared" ref="AQ4:CG4" si="4">AQ5</f>
+        <v>45971</v>
+      </c>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="23"/>
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="24"/>
+      <c r="AX4" s="22">
+        <f t="shared" si="4"/>
+        <v>45978</v>
+      </c>
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="23"/>
+      <c r="BA4" s="23"/>
+      <c r="BB4" s="23"/>
+      <c r="BC4" s="23"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="22">
+        <f t="shared" si="4"/>
+        <v>45985</v>
+      </c>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="23"/>
+      <c r="BH4" s="23"/>
+      <c r="BI4" s="23"/>
+      <c r="BJ4" s="23"/>
+      <c r="BK4" s="24"/>
+      <c r="BL4" s="22">
+        <f t="shared" si="4"/>
+        <v>45992</v>
+      </c>
+      <c r="BM4" s="23"/>
+      <c r="BN4" s="23"/>
+      <c r="BO4" s="23"/>
+      <c r="BP4" s="23"/>
+      <c r="BQ4" s="23"/>
+      <c r="BR4" s="24"/>
+      <c r="BS4" s="22">
+        <f t="shared" si="4"/>
+        <v>45999</v>
+      </c>
+      <c r="BT4" s="23"/>
+      <c r="BU4" s="23"/>
+      <c r="BV4" s="23"/>
+      <c r="BW4" s="23"/>
+      <c r="BX4" s="23"/>
+      <c r="BY4" s="24"/>
+      <c r="BZ4" s="22">
+        <f t="shared" si="4"/>
+        <v>46006</v>
+      </c>
+      <c r="CA4" s="23"/>
+      <c r="CB4" s="23"/>
+      <c r="CC4" s="23"/>
+      <c r="CD4" s="23"/>
+      <c r="CE4" s="23"/>
+      <c r="CF4" s="24"/>
+      <c r="CG4" s="22">
+        <f t="shared" si="4"/>
+        <v>46013</v>
+      </c>
+      <c r="CH4" s="23"/>
+      <c r="CI4" s="23"/>
+      <c r="CJ4" s="23"/>
+      <c r="CK4" s="23"/>
+      <c r="CL4" s="23"/>
+      <c r="CM4" s="24"/>
+    </row>
+    <row r="5" spans="1:91">
       <c r="H5" s="7">
         <f>$D$3-WEEKDAY(project_start,3)+(display_week-1)*7</f>
         <v>45936</v>
@@ -1016,139 +1085,335 @@
         <v>45937</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" ref="J5:AB5" si="4">I5+1</f>
+        <f t="shared" ref="J5:AB5" si="5">I5+1</f>
         <v>45938</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45939</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45940</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45941</v>
       </c>
       <c r="N5" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45942</v>
       </c>
       <c r="O5" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45943</v>
       </c>
       <c r="P5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45944</v>
       </c>
       <c r="Q5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45945</v>
       </c>
       <c r="R5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45946</v>
       </c>
       <c r="S5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45947</v>
       </c>
       <c r="T5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45948</v>
       </c>
       <c r="U5" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45949</v>
       </c>
       <c r="V5" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45950</v>
       </c>
       <c r="W5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45951</v>
       </c>
       <c r="X5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45952</v>
       </c>
       <c r="Y5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45953</v>
       </c>
       <c r="Z5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45954</v>
       </c>
       <c r="AA5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45955</v>
       </c>
       <c r="AB5" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45956</v>
       </c>
       <c r="AC5" s="7">
-        <f t="shared" ref="AC5:AI5" si="5">AB5+1</f>
+        <f t="shared" ref="AC5:AI5" si="6">AB5+1</f>
         <v>45957</v>
       </c>
       <c r="AD5" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45958</v>
       </c>
       <c r="AE5" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45959</v>
       </c>
       <c r="AF5" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45960</v>
       </c>
       <c r="AG5" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45961</v>
       </c>
       <c r="AH5" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45962</v>
       </c>
       <c r="AI5" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45963</v>
       </c>
       <c r="AJ5" s="7">
-        <f t="shared" ref="AJ5:AP5" si="6">AI5+1</f>
+        <f t="shared" ref="AJ5:AP5" si="7">AI5+1</f>
         <v>45964</v>
       </c>
       <c r="AK5" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45965</v>
       </c>
       <c r="AL5" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45966</v>
       </c>
       <c r="AM5" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45967</v>
       </c>
       <c r="AN5" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45968</v>
       </c>
       <c r="AO5" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45969</v>
       </c>
       <c r="AP5" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45970</v>
       </c>
-    </row>
-    <row r="6" spans="1:42">
+      <c r="AQ5" s="7">
+        <f t="shared" ref="AQ5" si="8">AP5+1</f>
+        <v>45971</v>
+      </c>
+      <c r="AR5" s="8">
+        <f t="shared" ref="AR5" si="9">AQ5+1</f>
+        <v>45972</v>
+      </c>
+      <c r="AS5" s="8">
+        <f t="shared" ref="AS5" si="10">AR5+1</f>
+        <v>45973</v>
+      </c>
+      <c r="AT5" s="8">
+        <f t="shared" ref="AT5" si="11">AS5+1</f>
+        <v>45974</v>
+      </c>
+      <c r="AU5" s="8">
+        <f t="shared" ref="AU5" si="12">AT5+1</f>
+        <v>45975</v>
+      </c>
+      <c r="AV5" s="8">
+        <f t="shared" ref="AV5" si="13">AU5+1</f>
+        <v>45976</v>
+      </c>
+      <c r="AW5" s="9">
+        <f t="shared" ref="AW5" si="14">AV5+1</f>
+        <v>45977</v>
+      </c>
+      <c r="AX5" s="7">
+        <f t="shared" ref="AX5" si="15">AW5+1</f>
+        <v>45978</v>
+      </c>
+      <c r="AY5" s="8">
+        <f t="shared" ref="AY5" si="16">AX5+1</f>
+        <v>45979</v>
+      </c>
+      <c r="AZ5" s="8">
+        <f t="shared" ref="AZ5" si="17">AY5+1</f>
+        <v>45980</v>
+      </c>
+      <c r="BA5" s="8">
+        <f t="shared" ref="BA5" si="18">AZ5+1</f>
+        <v>45981</v>
+      </c>
+      <c r="BB5" s="8">
+        <f t="shared" ref="BB5" si="19">BA5+1</f>
+        <v>45982</v>
+      </c>
+      <c r="BC5" s="8">
+        <f t="shared" ref="BC5" si="20">BB5+1</f>
+        <v>45983</v>
+      </c>
+      <c r="BD5" s="9">
+        <f t="shared" ref="BD5" si="21">BC5+1</f>
+        <v>45984</v>
+      </c>
+      <c r="BE5" s="7">
+        <f t="shared" ref="BE5" si="22">BD5+1</f>
+        <v>45985</v>
+      </c>
+      <c r="BF5" s="8">
+        <f t="shared" ref="BF5" si="23">BE5+1</f>
+        <v>45986</v>
+      </c>
+      <c r="BG5" s="8">
+        <f t="shared" ref="BG5" si="24">BF5+1</f>
+        <v>45987</v>
+      </c>
+      <c r="BH5" s="8">
+        <f t="shared" ref="BH5" si="25">BG5+1</f>
+        <v>45988</v>
+      </c>
+      <c r="BI5" s="8">
+        <f t="shared" ref="BI5" si="26">BH5+1</f>
+        <v>45989</v>
+      </c>
+      <c r="BJ5" s="8">
+        <f t="shared" ref="BJ5" si="27">BI5+1</f>
+        <v>45990</v>
+      </c>
+      <c r="BK5" s="9">
+        <f t="shared" ref="BK5" si="28">BJ5+1</f>
+        <v>45991</v>
+      </c>
+      <c r="BL5" s="7">
+        <f t="shared" ref="BL5" si="29">BK5+1</f>
+        <v>45992</v>
+      </c>
+      <c r="BM5" s="8">
+        <f t="shared" ref="BM5" si="30">BL5+1</f>
+        <v>45993</v>
+      </c>
+      <c r="BN5" s="8">
+        <f t="shared" ref="BN5" si="31">BM5+1</f>
+        <v>45994</v>
+      </c>
+      <c r="BO5" s="8">
+        <f t="shared" ref="BO5" si="32">BN5+1</f>
+        <v>45995</v>
+      </c>
+      <c r="BP5" s="8">
+        <f t="shared" ref="BP5" si="33">BO5+1</f>
+        <v>45996</v>
+      </c>
+      <c r="BQ5" s="8">
+        <f t="shared" ref="BQ5" si="34">BP5+1</f>
+        <v>45997</v>
+      </c>
+      <c r="BR5" s="9">
+        <f t="shared" ref="BR5" si="35">BQ5+1</f>
+        <v>45998</v>
+      </c>
+      <c r="BS5" s="7">
+        <f t="shared" ref="BS5" si="36">BR5+1</f>
+        <v>45999</v>
+      </c>
+      <c r="BT5" s="8">
+        <f t="shared" ref="BT5" si="37">BS5+1</f>
+        <v>46000</v>
+      </c>
+      <c r="BU5" s="8">
+        <f t="shared" ref="BU5" si="38">BT5+1</f>
+        <v>46001</v>
+      </c>
+      <c r="BV5" s="8">
+        <f t="shared" ref="BV5" si="39">BU5+1</f>
+        <v>46002</v>
+      </c>
+      <c r="BW5" s="8">
+        <f t="shared" ref="BW5" si="40">BV5+1</f>
+        <v>46003</v>
+      </c>
+      <c r="BX5" s="8">
+        <f t="shared" ref="BX5" si="41">BW5+1</f>
+        <v>46004</v>
+      </c>
+      <c r="BY5" s="9">
+        <f t="shared" ref="BY5" si="42">BX5+1</f>
+        <v>46005</v>
+      </c>
+      <c r="BZ5" s="7">
+        <f t="shared" ref="BZ5" si="43">BY5+1</f>
+        <v>46006</v>
+      </c>
+      <c r="CA5" s="8">
+        <f t="shared" ref="CA5" si="44">BZ5+1</f>
+        <v>46007</v>
+      </c>
+      <c r="CB5" s="8">
+        <f t="shared" ref="CB5" si="45">CA5+1</f>
+        <v>46008</v>
+      </c>
+      <c r="CC5" s="8">
+        <f t="shared" ref="CC5" si="46">CB5+1</f>
+        <v>46009</v>
+      </c>
+      <c r="CD5" s="8">
+        <f t="shared" ref="CD5" si="47">CC5+1</f>
+        <v>46010</v>
+      </c>
+      <c r="CE5" s="8">
+        <f t="shared" ref="CE5" si="48">CD5+1</f>
+        <v>46011</v>
+      </c>
+      <c r="CF5" s="9">
+        <f t="shared" ref="CF5" si="49">CE5+1</f>
+        <v>46012</v>
+      </c>
+      <c r="CG5" s="7">
+        <f t="shared" ref="CG5" si="50">CF5+1</f>
+        <v>46013</v>
+      </c>
+      <c r="CH5" s="8">
+        <f t="shared" ref="CH5" si="51">CG5+1</f>
+        <v>46014</v>
+      </c>
+      <c r="CI5" s="8">
+        <f t="shared" ref="CI5" si="52">CH5+1</f>
+        <v>46015</v>
+      </c>
+      <c r="CJ5" s="8">
+        <f t="shared" ref="CJ5" si="53">CI5+1</f>
+        <v>46016</v>
+      </c>
+      <c r="CK5" s="8">
+        <f t="shared" ref="CK5" si="54">CJ5+1</f>
+        <v>46017</v>
+      </c>
+      <c r="CL5" s="8">
+        <f t="shared" ref="CL5" si="55">CK5+1</f>
+        <v>46018</v>
+      </c>
+      <c r="CM5" s="9">
+        <f t="shared" ref="CM5" si="56">CL5+1</f>
+        <v>46019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:91">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1173,154 +1438,350 @@
         <v>月</v>
       </c>
       <c r="I6" s="3" t="str">
-        <f t="shared" ref="I6:O6" si="7">TEXT(I5,"aaa")</f>
+        <f t="shared" ref="I6:O6" si="57">TEXT(I5,"aaa")</f>
         <v>火</v>
       </c>
       <c r="J6" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="57"/>
         <v>水</v>
       </c>
       <c r="K6" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="57"/>
         <v>木</v>
       </c>
       <c r="L6" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="57"/>
         <v>金</v>
       </c>
       <c r="M6" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="57"/>
         <v>土</v>
       </c>
       <c r="N6" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="57"/>
         <v>日</v>
       </c>
       <c r="O6" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="57"/>
         <v>月</v>
       </c>
       <c r="P6" s="3" t="str">
-        <f t="shared" ref="P6" si="8">TEXT(P5,"aaa")</f>
+        <f t="shared" ref="P6" si="58">TEXT(P5,"aaa")</f>
         <v>火</v>
       </c>
       <c r="Q6" s="3" t="str">
-        <f t="shared" ref="Q6" si="9">TEXT(Q5,"aaa")</f>
+        <f t="shared" ref="Q6" si="59">TEXT(Q5,"aaa")</f>
         <v>水</v>
       </c>
       <c r="R6" s="3" t="str">
-        <f t="shared" ref="R6" si="10">TEXT(R5,"aaa")</f>
+        <f t="shared" ref="R6" si="60">TEXT(R5,"aaa")</f>
         <v>木</v>
       </c>
       <c r="S6" s="3" t="str">
-        <f t="shared" ref="S6" si="11">TEXT(S5,"aaa")</f>
+        <f t="shared" ref="S6" si="61">TEXT(S5,"aaa")</f>
         <v>金</v>
       </c>
       <c r="T6" s="3" t="str">
-        <f t="shared" ref="T6" si="12">TEXT(T5,"aaa")</f>
+        <f t="shared" ref="T6" si="62">TEXT(T5,"aaa")</f>
         <v>土</v>
       </c>
       <c r="U6" s="3" t="str">
-        <f t="shared" ref="U6:V6" si="13">TEXT(U5,"aaa")</f>
+        <f t="shared" ref="U6:V6" si="63">TEXT(U5,"aaa")</f>
         <v>日</v>
       </c>
       <c r="V6" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="63"/>
         <v>月</v>
       </c>
       <c r="W6" s="3" t="str">
-        <f t="shared" ref="W6" si="14">TEXT(W5,"aaa")</f>
+        <f t="shared" ref="W6" si="64">TEXT(W5,"aaa")</f>
         <v>火</v>
       </c>
       <c r="X6" s="3" t="str">
-        <f t="shared" ref="X6" si="15">TEXT(X5,"aaa")</f>
+        <f t="shared" ref="X6" si="65">TEXT(X5,"aaa")</f>
         <v>水</v>
       </c>
       <c r="Y6" s="3" t="str">
-        <f t="shared" ref="Y6" si="16">TEXT(Y5,"aaa")</f>
+        <f t="shared" ref="Y6" si="66">TEXT(Y5,"aaa")</f>
         <v>木</v>
       </c>
       <c r="Z6" s="3" t="str">
-        <f t="shared" ref="Z6" si="17">TEXT(Z5,"aaa")</f>
+        <f t="shared" ref="Z6" si="67">TEXT(Z5,"aaa")</f>
         <v>金</v>
       </c>
       <c r="AA6" s="3" t="str">
-        <f t="shared" ref="AA6" si="18">TEXT(AA5,"aaa")</f>
+        <f t="shared" ref="AA6" si="68">TEXT(AA5,"aaa")</f>
         <v>土</v>
       </c>
       <c r="AB6" s="3" t="str">
-        <f t="shared" ref="AB6" si="19">TEXT(AB5,"aaa")</f>
+        <f t="shared" ref="AB6" si="69">TEXT(AB5,"aaa")</f>
         <v>日</v>
       </c>
       <c r="AC6" s="3" t="str">
-        <f t="shared" ref="AC6" si="20">TEXT(AC5,"aaa")</f>
+        <f t="shared" ref="AC6" si="70">TEXT(AC5,"aaa")</f>
         <v>月</v>
       </c>
       <c r="AD6" s="3" t="str">
-        <f t="shared" ref="AD6" si="21">TEXT(AD5,"aaa")</f>
+        <f t="shared" ref="AD6" si="71">TEXT(AD5,"aaa")</f>
         <v>火</v>
       </c>
       <c r="AE6" s="3" t="str">
-        <f t="shared" ref="AE6" si="22">TEXT(AE5,"aaa")</f>
+        <f t="shared" ref="AE6" si="72">TEXT(AE5,"aaa")</f>
         <v>水</v>
       </c>
       <c r="AF6" s="3" t="str">
-        <f t="shared" ref="AF6" si="23">TEXT(AF5,"aaa")</f>
+        <f t="shared" ref="AF6" si="73">TEXT(AF5,"aaa")</f>
         <v>木</v>
       </c>
       <c r="AG6" s="3" t="str">
-        <f t="shared" ref="AG6" si="24">TEXT(AG5,"aaa")</f>
+        <f t="shared" ref="AG6" si="74">TEXT(AG5,"aaa")</f>
         <v>金</v>
       </c>
       <c r="AH6" s="3" t="str">
-        <f t="shared" ref="AH6" si="25">TEXT(AH5,"aaa")</f>
+        <f t="shared" ref="AH6" si="75">TEXT(AH5,"aaa")</f>
         <v>土</v>
       </c>
       <c r="AI6" s="3" t="str">
-        <f t="shared" ref="AI6" si="26">TEXT(AI5,"aaa")</f>
+        <f t="shared" ref="AI6" si="76">TEXT(AI5,"aaa")</f>
         <v>日</v>
       </c>
       <c r="AJ6" s="3" t="str">
-        <f t="shared" ref="AJ6" si="27">TEXT(AJ5,"aaa")</f>
+        <f t="shared" ref="AJ6" si="77">TEXT(AJ5,"aaa")</f>
         <v>月</v>
       </c>
       <c r="AK6" s="3" t="str">
-        <f t="shared" ref="AK6" si="28">TEXT(AK5,"aaa")</f>
+        <f t="shared" ref="AK6" si="78">TEXT(AK5,"aaa")</f>
         <v>火</v>
       </c>
       <c r="AL6" s="3" t="str">
-        <f t="shared" ref="AL6" si="29">TEXT(AL5,"aaa")</f>
+        <f t="shared" ref="AL6" si="79">TEXT(AL5,"aaa")</f>
         <v>水</v>
       </c>
       <c r="AM6" s="3" t="str">
-        <f t="shared" ref="AM6" si="30">TEXT(AM5,"aaa")</f>
+        <f t="shared" ref="AM6" si="80">TEXT(AM5,"aaa")</f>
         <v>木</v>
       </c>
       <c r="AN6" s="3" t="str">
-        <f t="shared" ref="AN6" si="31">TEXT(AN5,"aaa")</f>
+        <f t="shared" ref="AN6" si="81">TEXT(AN5,"aaa")</f>
         <v>金</v>
       </c>
       <c r="AO6" s="3" t="str">
-        <f t="shared" ref="AO6" si="32">TEXT(AO5,"aaa")</f>
+        <f t="shared" ref="AO6" si="82">TEXT(AO5,"aaa")</f>
         <v>土</v>
       </c>
       <c r="AP6" s="3" t="str">
-        <f t="shared" ref="AP6" si="33">TEXT(AP5,"aaa")</f>
+        <f t="shared" ref="AP6:CL6" si="83">TEXT(AP5,"aaa")</f>
         <v>日</v>
       </c>
-    </row>
-    <row r="7" spans="1:42">
-      <c r="A7" s="20" t="s">
+      <c r="AQ6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>月</v>
+      </c>
+      <c r="AR6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>火</v>
+      </c>
+      <c r="AS6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>水</v>
+      </c>
+      <c r="AT6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>木</v>
+      </c>
+      <c r="AU6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>金</v>
+      </c>
+      <c r="AV6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>土</v>
+      </c>
+      <c r="AW6" s="3" t="str">
+        <f t="shared" ref="AW6" si="84">TEXT(AW5,"aaa")</f>
+        <v>日</v>
+      </c>
+      <c r="AX6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>月</v>
+      </c>
+      <c r="AY6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>火</v>
+      </c>
+      <c r="AZ6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>水</v>
+      </c>
+      <c r="BA6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>木</v>
+      </c>
+      <c r="BB6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>金</v>
+      </c>
+      <c r="BC6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>土</v>
+      </c>
+      <c r="BD6" s="3" t="str">
+        <f t="shared" ref="BD6" si="85">TEXT(BD5,"aaa")</f>
+        <v>日</v>
+      </c>
+      <c r="BE6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>月</v>
+      </c>
+      <c r="BF6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>火</v>
+      </c>
+      <c r="BG6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>水</v>
+      </c>
+      <c r="BH6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>木</v>
+      </c>
+      <c r="BI6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>金</v>
+      </c>
+      <c r="BJ6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>土</v>
+      </c>
+      <c r="BK6" s="3" t="str">
+        <f t="shared" ref="BK6" si="86">TEXT(BK5,"aaa")</f>
+        <v>日</v>
+      </c>
+      <c r="BL6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>月</v>
+      </c>
+      <c r="BM6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>火</v>
+      </c>
+      <c r="BN6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>水</v>
+      </c>
+      <c r="BO6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>木</v>
+      </c>
+      <c r="BP6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>金</v>
+      </c>
+      <c r="BQ6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>土</v>
+      </c>
+      <c r="BR6" s="3" t="str">
+        <f t="shared" ref="BR6" si="87">TEXT(BR5,"aaa")</f>
+        <v>日</v>
+      </c>
+      <c r="BS6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>月</v>
+      </c>
+      <c r="BT6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>火</v>
+      </c>
+      <c r="BU6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>水</v>
+      </c>
+      <c r="BV6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>木</v>
+      </c>
+      <c r="BW6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>金</v>
+      </c>
+      <c r="BX6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>土</v>
+      </c>
+      <c r="BY6" s="3" t="str">
+        <f t="shared" ref="BY6" si="88">TEXT(BY5,"aaa")</f>
+        <v>日</v>
+      </c>
+      <c r="BZ6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>月</v>
+      </c>
+      <c r="CA6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>火</v>
+      </c>
+      <c r="CB6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>水</v>
+      </c>
+      <c r="CC6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>木</v>
+      </c>
+      <c r="CD6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>金</v>
+      </c>
+      <c r="CE6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>土</v>
+      </c>
+      <c r="CF6" s="3" t="str">
+        <f t="shared" ref="CF6" si="89">TEXT(CF5,"aaa")</f>
+        <v>日</v>
+      </c>
+      <c r="CG6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>月</v>
+      </c>
+      <c r="CH6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>火</v>
+      </c>
+      <c r="CI6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>水</v>
+      </c>
+      <c r="CJ6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>木</v>
+      </c>
+      <c r="CK6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>金</v>
+      </c>
+      <c r="CL6" s="3" t="str">
+        <f t="shared" si="83"/>
+        <v>土</v>
+      </c>
+      <c r="CM6" s="3" t="str">
+        <f t="shared" ref="CM6" si="90">TEXT(CM5,"aaa")</f>
+        <v>日</v>
+      </c>
+    </row>
+    <row r="7" spans="1:91">
+      <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="15" t="str">
-        <f t="shared" ref="E7:E16" si="34">IF(OR(D7="",F7=""),"-",WORKDAY(D7,F7-1,holiday_dates))</f>
+        <f t="shared" ref="E7:E16" si="91">IF(OR(D7="",F7=""),"-",WORKDAY(D7,F7-1,holiday_dates))</f>
         <v>-</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="5"/>
@@ -1359,23 +1820,72 @@
       <c r="AN7" s="14"/>
       <c r="AO7" s="14"/>
       <c r="AP7" s="14"/>
-    </row>
-    <row r="8" spans="1:42">
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="14"/>
+      <c r="BL7" s="14"/>
+      <c r="BM7" s="14"/>
+      <c r="BN7" s="14"/>
+      <c r="BO7" s="14"/>
+      <c r="BP7" s="14"/>
+      <c r="BQ7" s="14"/>
+      <c r="BR7" s="14"/>
+      <c r="BS7" s="14"/>
+      <c r="BT7" s="14"/>
+      <c r="BU7" s="14"/>
+      <c r="BV7" s="14"/>
+      <c r="BW7" s="14"/>
+      <c r="BX7" s="14"/>
+      <c r="BY7" s="14"/>
+      <c r="BZ7" s="14"/>
+      <c r="CA7" s="14"/>
+      <c r="CB7" s="14"/>
+      <c r="CC7" s="14"/>
+      <c r="CD7" s="14"/>
+      <c r="CE7" s="14"/>
+      <c r="CF7" s="14"/>
+      <c r="CG7" s="14"/>
+      <c r="CH7" s="14"/>
+      <c r="CI7" s="14"/>
+      <c r="CJ7" s="14"/>
+      <c r="CK7" s="14"/>
+      <c r="CL7" s="14"/>
+      <c r="CM7" s="14"/>
+    </row>
+    <row r="8" spans="1:91">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="24">
+      <c r="C8" s="21">
         <v>0.3</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="20">
         <v>45945</v>
       </c>
       <c r="E8" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="91"/>
         <v>45950</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="18">
         <v>4</v>
       </c>
       <c r="G8" s="5"/>
@@ -1414,23 +1924,72 @@
       <c r="AN8" s="14"/>
       <c r="AO8" s="14"/>
       <c r="AP8" s="14"/>
-    </row>
-    <row r="9" spans="1:42">
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14"/>
+      <c r="BL8" s="14"/>
+      <c r="BM8" s="14"/>
+      <c r="BN8" s="14"/>
+      <c r="BO8" s="14"/>
+      <c r="BP8" s="14"/>
+      <c r="BQ8" s="14"/>
+      <c r="BR8" s="14"/>
+      <c r="BS8" s="14"/>
+      <c r="BT8" s="14"/>
+      <c r="BU8" s="14"/>
+      <c r="BV8" s="14"/>
+      <c r="BW8" s="14"/>
+      <c r="BX8" s="14"/>
+      <c r="BY8" s="14"/>
+      <c r="BZ8" s="14"/>
+      <c r="CA8" s="14"/>
+      <c r="CB8" s="14"/>
+      <c r="CC8" s="14"/>
+      <c r="CD8" s="14"/>
+      <c r="CE8" s="14"/>
+      <c r="CF8" s="14"/>
+      <c r="CG8" s="14"/>
+      <c r="CH8" s="14"/>
+      <c r="CI8" s="14"/>
+      <c r="CJ8" s="14"/>
+      <c r="CK8" s="14"/>
+      <c r="CL8" s="14"/>
+      <c r="CM8" s="14"/>
+    </row>
+    <row r="9" spans="1:91">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="22">
+      <c r="C9" s="19">
         <v>0.5</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="20">
         <v>45957</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="91"/>
         <v>45961</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="18">
         <v>5</v>
       </c>
       <c r="G9" s="5"/>
@@ -1469,23 +2028,72 @@
       <c r="AN9" s="14"/>
       <c r="AO9" s="14"/>
       <c r="AP9" s="14"/>
-    </row>
-    <row r="10" spans="1:42">
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="14"/>
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="14"/>
+      <c r="BI9" s="14"/>
+      <c r="BJ9" s="14"/>
+      <c r="BK9" s="14"/>
+      <c r="BL9" s="14"/>
+      <c r="BM9" s="14"/>
+      <c r="BN9" s="14"/>
+      <c r="BO9" s="14"/>
+      <c r="BP9" s="14"/>
+      <c r="BQ9" s="14"/>
+      <c r="BR9" s="14"/>
+      <c r="BS9" s="14"/>
+      <c r="BT9" s="14"/>
+      <c r="BU9" s="14"/>
+      <c r="BV9" s="14"/>
+      <c r="BW9" s="14"/>
+      <c r="BX9" s="14"/>
+      <c r="BY9" s="14"/>
+      <c r="BZ9" s="14"/>
+      <c r="CA9" s="14"/>
+      <c r="CB9" s="14"/>
+      <c r="CC9" s="14"/>
+      <c r="CD9" s="14"/>
+      <c r="CE9" s="14"/>
+      <c r="CF9" s="14"/>
+      <c r="CG9" s="14"/>
+      <c r="CH9" s="14"/>
+      <c r="CI9" s="14"/>
+      <c r="CJ9" s="14"/>
+      <c r="CK9" s="14"/>
+      <c r="CL9" s="14"/>
+      <c r="CM9" s="14"/>
+    </row>
+    <row r="10" spans="1:91">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="22">
+      <c r="C10" s="19">
         <v>0</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="20">
         <v>45961</v>
       </c>
       <c r="E10" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="91"/>
         <v>45961</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="18">
         <v>1</v>
       </c>
       <c r="G10" s="5"/>
@@ -1524,23 +2132,72 @@
       <c r="AN10" s="14"/>
       <c r="AO10" s="14"/>
       <c r="AP10" s="14"/>
-    </row>
-    <row r="11" spans="1:42">
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="14"/>
+      <c r="BI10" s="14"/>
+      <c r="BJ10" s="14"/>
+      <c r="BK10" s="14"/>
+      <c r="BL10" s="14"/>
+      <c r="BM10" s="14"/>
+      <c r="BN10" s="14"/>
+      <c r="BO10" s="14"/>
+      <c r="BP10" s="14"/>
+      <c r="BQ10" s="14"/>
+      <c r="BR10" s="14"/>
+      <c r="BS10" s="14"/>
+      <c r="BT10" s="14"/>
+      <c r="BU10" s="14"/>
+      <c r="BV10" s="14"/>
+      <c r="BW10" s="14"/>
+      <c r="BX10" s="14"/>
+      <c r="BY10" s="14"/>
+      <c r="BZ10" s="14"/>
+      <c r="CA10" s="14"/>
+      <c r="CB10" s="14"/>
+      <c r="CC10" s="14"/>
+      <c r="CD10" s="14"/>
+      <c r="CE10" s="14"/>
+      <c r="CF10" s="14"/>
+      <c r="CG10" s="14"/>
+      <c r="CH10" s="14"/>
+      <c r="CI10" s="14"/>
+      <c r="CJ10" s="14"/>
+      <c r="CK10" s="14"/>
+      <c r="CL10" s="14"/>
+      <c r="CM10" s="14"/>
+    </row>
+    <row r="11" spans="1:91">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="22">
+      <c r="C11" s="19">
         <v>0.5</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="20">
         <v>45960</v>
       </c>
       <c r="E11" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="91"/>
         <v>45965</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="18">
         <v>3</v>
       </c>
       <c r="G11" s="5"/>
@@ -1579,19 +2236,68 @@
       <c r="AN11" s="14"/>
       <c r="AO11" s="14"/>
       <c r="AP11" s="14"/>
-    </row>
-    <row r="12" spans="1:42">
-      <c r="A12" s="20" t="s">
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="14"/>
+      <c r="BB11" s="14"/>
+      <c r="BC11" s="14"/>
+      <c r="BD11" s="14"/>
+      <c r="BE11" s="14"/>
+      <c r="BF11" s="14"/>
+      <c r="BG11" s="14"/>
+      <c r="BH11" s="14"/>
+      <c r="BI11" s="14"/>
+      <c r="BJ11" s="14"/>
+      <c r="BK11" s="14"/>
+      <c r="BL11" s="14"/>
+      <c r="BM11" s="14"/>
+      <c r="BN11" s="14"/>
+      <c r="BO11" s="14"/>
+      <c r="BP11" s="14"/>
+      <c r="BQ11" s="14"/>
+      <c r="BR11" s="14"/>
+      <c r="BS11" s="14"/>
+      <c r="BT11" s="14"/>
+      <c r="BU11" s="14"/>
+      <c r="BV11" s="14"/>
+      <c r="BW11" s="14"/>
+      <c r="BX11" s="14"/>
+      <c r="BY11" s="14"/>
+      <c r="BZ11" s="14"/>
+      <c r="CA11" s="14"/>
+      <c r="CB11" s="14"/>
+      <c r="CC11" s="14"/>
+      <c r="CD11" s="14"/>
+      <c r="CE11" s="14"/>
+      <c r="CF11" s="14"/>
+      <c r="CG11" s="14"/>
+      <c r="CH11" s="14"/>
+      <c r="CI11" s="14"/>
+      <c r="CJ11" s="14"/>
+      <c r="CK11" s="14"/>
+      <c r="CL11" s="14"/>
+      <c r="CM11" s="14"/>
+    </row>
+    <row r="12" spans="1:91">
+      <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="15" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="91"/>
         <v>-</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="5"/>
@@ -1630,21 +2336,70 @@
       <c r="AN12" s="14"/>
       <c r="AO12" s="14"/>
       <c r="AP12" s="14"/>
-    </row>
-    <row r="13" spans="1:42">
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="14"/>
+      <c r="BC12" s="14"/>
+      <c r="BD12" s="14"/>
+      <c r="BE12" s="14"/>
+      <c r="BF12" s="14"/>
+      <c r="BG12" s="14"/>
+      <c r="BH12" s="14"/>
+      <c r="BI12" s="14"/>
+      <c r="BJ12" s="14"/>
+      <c r="BK12" s="14"/>
+      <c r="BL12" s="14"/>
+      <c r="BM12" s="14"/>
+      <c r="BN12" s="14"/>
+      <c r="BO12" s="14"/>
+      <c r="BP12" s="14"/>
+      <c r="BQ12" s="14"/>
+      <c r="BR12" s="14"/>
+      <c r="BS12" s="14"/>
+      <c r="BT12" s="14"/>
+      <c r="BU12" s="14"/>
+      <c r="BV12" s="14"/>
+      <c r="BW12" s="14"/>
+      <c r="BX12" s="14"/>
+      <c r="BY12" s="14"/>
+      <c r="BZ12" s="14"/>
+      <c r="CA12" s="14"/>
+      <c r="CB12" s="14"/>
+      <c r="CC12" s="14"/>
+      <c r="CD12" s="14"/>
+      <c r="CE12" s="14"/>
+      <c r="CF12" s="14"/>
+      <c r="CG12" s="14"/>
+      <c r="CH12" s="14"/>
+      <c r="CI12" s="14"/>
+      <c r="CJ12" s="14"/>
+      <c r="CK12" s="14"/>
+      <c r="CL12" s="14"/>
+      <c r="CM12" s="14"/>
+    </row>
+    <row r="13" spans="1:91">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23">
+      <c r="C13" s="19"/>
+      <c r="D13" s="20">
         <v>45966</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="91"/>
         <v>45968</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="18">
         <v>3</v>
       </c>
       <c r="G13" s="5"/>
@@ -1683,21 +2438,70 @@
       <c r="AN13" s="14"/>
       <c r="AO13" s="14"/>
       <c r="AP13" s="14"/>
-    </row>
-    <row r="14" spans="1:42">
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="14"/>
+      <c r="BB13" s="14"/>
+      <c r="BC13" s="14"/>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="14"/>
+      <c r="BF13" s="14"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="14"/>
+      <c r="BI13" s="14"/>
+      <c r="BJ13" s="14"/>
+      <c r="BK13" s="14"/>
+      <c r="BL13" s="14"/>
+      <c r="BM13" s="14"/>
+      <c r="BN13" s="14"/>
+      <c r="BO13" s="14"/>
+      <c r="BP13" s="14"/>
+      <c r="BQ13" s="14"/>
+      <c r="BR13" s="14"/>
+      <c r="BS13" s="14"/>
+      <c r="BT13" s="14"/>
+      <c r="BU13" s="14"/>
+      <c r="BV13" s="14"/>
+      <c r="BW13" s="14"/>
+      <c r="BX13" s="14"/>
+      <c r="BY13" s="14"/>
+      <c r="BZ13" s="14"/>
+      <c r="CA13" s="14"/>
+      <c r="CB13" s="14"/>
+      <c r="CC13" s="14"/>
+      <c r="CD13" s="14"/>
+      <c r="CE13" s="14"/>
+      <c r="CF13" s="14"/>
+      <c r="CG13" s="14"/>
+      <c r="CH13" s="14"/>
+      <c r="CI13" s="14"/>
+      <c r="CJ13" s="14"/>
+      <c r="CK13" s="14"/>
+      <c r="CL13" s="14"/>
+      <c r="CM13" s="14"/>
+    </row>
+    <row r="14" spans="1:91">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23">
+      <c r="C14" s="19"/>
+      <c r="D14" s="20">
         <v>45968</v>
       </c>
       <c r="E14" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="91"/>
         <v>45968</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="18">
         <v>1</v>
       </c>
       <c r="G14" s="5"/>
@@ -1736,21 +2540,70 @@
       <c r="AN14" s="14"/>
       <c r="AO14" s="14"/>
       <c r="AP14" s="14"/>
-    </row>
-    <row r="15" spans="1:42">
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
+      <c r="BF14" s="14"/>
+      <c r="BG14" s="14"/>
+      <c r="BH14" s="14"/>
+      <c r="BI14" s="14"/>
+      <c r="BJ14" s="14"/>
+      <c r="BK14" s="14"/>
+      <c r="BL14" s="14"/>
+      <c r="BM14" s="14"/>
+      <c r="BN14" s="14"/>
+      <c r="BO14" s="14"/>
+      <c r="BP14" s="14"/>
+      <c r="BQ14" s="14"/>
+      <c r="BR14" s="14"/>
+      <c r="BS14" s="14"/>
+      <c r="BT14" s="14"/>
+      <c r="BU14" s="14"/>
+      <c r="BV14" s="14"/>
+      <c r="BW14" s="14"/>
+      <c r="BX14" s="14"/>
+      <c r="BY14" s="14"/>
+      <c r="BZ14" s="14"/>
+      <c r="CA14" s="14"/>
+      <c r="CB14" s="14"/>
+      <c r="CC14" s="14"/>
+      <c r="CD14" s="14"/>
+      <c r="CE14" s="14"/>
+      <c r="CF14" s="14"/>
+      <c r="CG14" s="14"/>
+      <c r="CH14" s="14"/>
+      <c r="CI14" s="14"/>
+      <c r="CJ14" s="14"/>
+      <c r="CK14" s="14"/>
+      <c r="CL14" s="14"/>
+      <c r="CM14" s="14"/>
+    </row>
+    <row r="15" spans="1:91">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23">
+      <c r="C15" s="19"/>
+      <c r="D15" s="20">
         <v>45968</v>
       </c>
       <c r="E15" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="91"/>
         <v>45971</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="18">
         <v>2</v>
       </c>
       <c r="G15" s="5"/>
@@ -1789,21 +2642,70 @@
       <c r="AN15" s="14"/>
       <c r="AO15" s="14"/>
       <c r="AP15" s="14"/>
-    </row>
-    <row r="16" spans="1:42">
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="14"/>
+      <c r="BJ15" s="14"/>
+      <c r="BK15" s="14"/>
+      <c r="BL15" s="14"/>
+      <c r="BM15" s="14"/>
+      <c r="BN15" s="14"/>
+      <c r="BO15" s="14"/>
+      <c r="BP15" s="14"/>
+      <c r="BQ15" s="14"/>
+      <c r="BR15" s="14"/>
+      <c r="BS15" s="14"/>
+      <c r="BT15" s="14"/>
+      <c r="BU15" s="14"/>
+      <c r="BV15" s="14"/>
+      <c r="BW15" s="14"/>
+      <c r="BX15" s="14"/>
+      <c r="BY15" s="14"/>
+      <c r="BZ15" s="14"/>
+      <c r="CA15" s="14"/>
+      <c r="CB15" s="14"/>
+      <c r="CC15" s="14"/>
+      <c r="CD15" s="14"/>
+      <c r="CE15" s="14"/>
+      <c r="CF15" s="14"/>
+      <c r="CG15" s="14"/>
+      <c r="CH15" s="14"/>
+      <c r="CI15" s="14"/>
+      <c r="CJ15" s="14"/>
+      <c r="CK15" s="14"/>
+      <c r="CL15" s="14"/>
+      <c r="CM15" s="14"/>
+    </row>
+    <row r="16" spans="1:91">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23">
+      <c r="C16" s="19"/>
+      <c r="D16" s="20">
         <v>45972</v>
       </c>
       <c r="E16" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="91"/>
         <v>45981</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="18">
         <v>8</v>
       </c>
       <c r="G16" s="5"/>
@@ -1842,12 +2744,68 @@
       <c r="AN16" s="14"/>
       <c r="AO16" s="14"/>
       <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="14"/>
+      <c r="AZ16" s="14"/>
+      <c r="BA16" s="14"/>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="14"/>
+      <c r="BF16" s="14"/>
+      <c r="BG16" s="14"/>
+      <c r="BH16" s="14"/>
+      <c r="BI16" s="14"/>
+      <c r="BJ16" s="14"/>
+      <c r="BK16" s="14"/>
+      <c r="BL16" s="14"/>
+      <c r="BM16" s="14"/>
+      <c r="BN16" s="14"/>
+      <c r="BO16" s="14"/>
+      <c r="BP16" s="14"/>
+      <c r="BQ16" s="14"/>
+      <c r="BR16" s="14"/>
+      <c r="BS16" s="14"/>
+      <c r="BT16" s="14"/>
+      <c r="BU16" s="14"/>
+      <c r="BV16" s="14"/>
+      <c r="BW16" s="14"/>
+      <c r="BX16" s="14"/>
+      <c r="BY16" s="14"/>
+      <c r="BZ16" s="14"/>
+      <c r="CA16" s="14"/>
+      <c r="CB16" s="14"/>
+      <c r="CC16" s="14"/>
+      <c r="CD16" s="14"/>
+      <c r="CE16" s="14"/>
+      <c r="CF16" s="14"/>
+      <c r="CG16" s="14"/>
+      <c r="CH16" s="14"/>
+      <c r="CI16" s="14"/>
+      <c r="CJ16" s="14"/>
+      <c r="CK16" s="14"/>
+      <c r="CL16" s="14"/>
+      <c r="CM16" s="14"/>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="12">
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="O4:U4"/>
     <mergeCell ref="V4:AB4"/>
@@ -1874,12 +2832,12 @@
       <formula>AND(task_progress&lt;1,E7&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:AP6">
+  <conditionalFormatting sqref="H5:CM6">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>MATCH(H$5,holiday_dates,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:AP16">
+  <conditionalFormatting sqref="H5:CM16">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>NETWORKDAYS(H$5,H$5,holiday_dates)=0</formula>
     </cfRule>
@@ -1887,7 +2845,7 @@
       <formula>H$5=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:AP16">
+  <conditionalFormatting sqref="H7:CM16">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>1*AND(H$5&gt;=task_start,H$5&lt;=task_start+(task_progress*(task_end-task_start+1))-1)</formula>
     </cfRule>
